--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2553,6 +2553,30 @@
         <v>0.966</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>20250224</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.972</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2577,6 +2577,102 @@
         <v>0.972</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>20250225</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.965</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>20250226</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>20250227</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F93"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2661,7 +2661,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.961</v>
+        <v>0.956</v>
       </c>
       <c r="D93" t="n">
         <v>0.972</v>
@@ -2670,7 +2670,31 @@
         <v>0.975</v>
       </c>
       <c r="F93" t="n">
-        <v>0.96</v>
+        <v>0.953</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>20250303</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.954</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -2685,16 +2685,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.965</v>
+        <v>0.955</v>
       </c>
       <c r="D94" t="n">
         <v>0.957</v>
       </c>
       <c r="E94" t="n">
-        <v>0.966</v>
+        <v>0.967</v>
       </c>
       <c r="F94" t="n">
-        <v>0.954</v>
+        <v>0.951</v>
       </c>
     </row>
   </sheetData>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2697,6 +2697,870 @@
         <v>0.951</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>20250304</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>20250305</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.955</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.952</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>20250306</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.963</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>20250307</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.978</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>20250311</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.973</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>20250313</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.971</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>20250314</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0.962</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.962</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>20250317</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.988</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>20250318</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>20250319</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>20250320</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.986</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.976</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>20250321</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.979</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.958</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>20250324</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.957</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>20250325</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.966</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.961</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>20250326</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.964</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.968</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>20250327</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>20250328</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.963</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.957</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20250331</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.946</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>20250401</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>20250402</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.956</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>20250403</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>20250407</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.867</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>20250408</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>20250409</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>20250410</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>20250411</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>20250414</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.913</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>20250415</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.908</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>20250416</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.903</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>20250417</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.913</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.918</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>20250418</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>20250421</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.912</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>20250422</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>20250423</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3561,6 +3561,54 @@
         <v>0.919</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>20250424</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.917</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>20250425</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.921</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.919</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,6 +3609,126 @@
         <v>0.919</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>20250428</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>20250429</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.922</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>20250430</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>20250506</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.924</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>20250507</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/download_SZ159338.xlsx
+++ b/data/download_SZ159338.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>最低Low</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>涨跌幅PRT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +493,9 @@
       <c r="F2" t="n">
         <v>0.93</v>
       </c>
+      <c r="G2" t="n">
+        <v>-2.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,6 +520,9 @@
       <c r="F3" t="n">
         <v>0.916</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.97</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -536,6 +547,9 @@
       <c r="F4" t="n">
         <v>0.915</v>
       </c>
+      <c r="G4" t="n">
+        <v>-0.87</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -560,6 +574,9 @@
       <c r="F5" t="n">
         <v>0.91</v>
       </c>
+      <c r="G5" t="n">
+        <v>4.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -584,6 +601,9 @@
       <c r="F6" t="n">
         <v>0.945</v>
       </c>
+      <c r="G6" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="F7" t="n">
         <v>0.95</v>
       </c>
+      <c r="G7" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -632,6 +655,9 @@
       <c r="F8" t="n">
         <v>0.957</v>
       </c>
+      <c r="G8" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -656,6 +682,9 @@
       <c r="F9" t="n">
         <v>0.951</v>
       </c>
+      <c r="G9" t="n">
+        <v>-1.04</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -680,6 +709,9 @@
       <c r="F10" t="n">
         <v>0.954</v>
       </c>
+      <c r="G10" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -704,6 +736,9 @@
       <c r="F11" t="n">
         <v>0.955</v>
       </c>
+      <c r="G11" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -728,6 +763,9 @@
       <c r="F12" t="n">
         <v>0.958</v>
       </c>
+      <c r="G12" t="n">
+        <v>-0.93</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -752,6 +790,9 @@
       <c r="F13" t="n">
         <v>0.946</v>
       </c>
+      <c r="G13" t="n">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -776,6 +817,9 @@
       <c r="F14" t="n">
         <v>0.947</v>
       </c>
+      <c r="G14" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -800,6 +844,9 @@
       <c r="F15" t="n">
         <v>0.949</v>
       </c>
+      <c r="G15" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -824,6 +871,9 @@
       <c r="F16" t="n">
         <v>0.952</v>
       </c>
+      <c r="G16" t="n">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -848,6 +898,9 @@
       <c r="F17" t="n">
         <v>0.961</v>
       </c>
+      <c r="G17" t="n">
+        <v>2.69</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -872,6 +925,9 @@
       <c r="F18" t="n">
         <v>0.983</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -896,6 +952,9 @@
       <c r="F19" t="n">
         <v>0.979</v>
       </c>
+      <c r="G19" t="n">
+        <v>2.53</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -920,6 +979,9 @@
       <c r="F20" t="n">
         <v>1.004</v>
       </c>
+      <c r="G20" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -944,6 +1006,9 @@
       <c r="F21" t="n">
         <v>0.995</v>
       </c>
+      <c r="G21" t="n">
+        <v>1.09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -968,6 +1033,9 @@
       <c r="F22" t="n">
         <v>0.999</v>
       </c>
+      <c r="G22" t="n">
+        <v>-1.18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -992,6 +1060,9 @@
       <c r="F23" t="n">
         <v>0.998</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1016,6 +1087,9 @@
       <c r="F24" t="n">
         <v>0.988</v>
       </c>
+      <c r="G24" t="n">
+        <v>-2.08</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1040,6 +1114,9 @@
       <c r="F25" t="n">
         <v>0.97</v>
       </c>
+      <c r="G25" t="n">
+        <v>-1.62</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1064,6 +1141,9 @@
       <c r="F26" t="n">
         <v>0.956</v>
       </c>
+      <c r="G26" t="n">
+        <v>-1.03</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1088,6 +1168,9 @@
       <c r="F27" t="n">
         <v>0.948</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1112,6 +1195,9 @@
       <c r="F28" t="n">
         <v>0.965</v>
       </c>
+      <c r="G28" t="n">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1136,6 +1222,9 @@
       <c r="F29" t="n">
         <v>0.969</v>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1160,6 +1249,9 @@
       <c r="F30" t="n">
         <v>0.944</v>
       </c>
+      <c r="G30" t="n">
+        <v>-3.07</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1184,6 +1276,9 @@
       <c r="F31" t="n">
         <v>0.93</v>
       </c>
+      <c r="G31" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1208,6 +1303,9 @@
       <c r="F32" t="n">
         <v>0.9350000000000001</v>
       </c>
+      <c r="G32" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1232,6 +1330,9 @@
       <c r="F33" t="n">
         <v>0.928</v>
       </c>
+      <c r="G33" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1256,6 +1357,9 @@
       <c r="F34" t="n">
         <v>0.9419999999999999</v>
       </c>
+      <c r="G34" t="n">
+        <v>-1.05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1280,6 +1384,9 @@
       <c r="F35" t="n">
         <v>0.9419999999999999</v>
       </c>
+      <c r="G35" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1304,6 +1411,9 @@
       <c r="F36" t="n">
         <v>0.952</v>
       </c>
+      <c r="G36" t="n">
+        <v>1.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1328,6 +1438,9 @@
       <c r="F37" t="n">
         <v>0.958</v>
       </c>
+      <c r="G37" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1352,6 +1465,9 @@
       <c r="F38" t="n">
         <v>0.955</v>
       </c>
+      <c r="G38" t="n">
+        <v>-0.73</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1376,6 +1492,9 @@
       <c r="F39" t="n">
         <v>0.953</v>
       </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1400,6 +1519,9 @@
       <c r="F40" t="n">
         <v>0.956</v>
       </c>
+      <c r="G40" t="n">
+        <v>1.46</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1424,6 +1546,9 @@
       <c r="F41" t="n">
         <v>0.962</v>
       </c>
+      <c r="G41" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1448,6 +1573,9 @@
       <c r="F42" t="n">
         <v>0.973</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1472,6 +1600,9 @@
       <c r="F43" t="n">
         <v>0.969</v>
       </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1496,6 +1627,9 @@
       <c r="F44" t="n">
         <v>0.973</v>
       </c>
+      <c r="G44" t="n">
+        <v>0.82</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1520,6 +1654,9 @@
       <c r="F45" t="n">
         <v>0.961</v>
       </c>
+      <c r="G45" t="n">
+        <v>-2.03</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1544,6 +1681,9 @@
       <c r="F46" t="n">
         <v>0.951</v>
       </c>
+      <c r="G46" t="n">
+        <v>-0.93</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1568,6 +1708,9 @@
       <c r="F47" t="n">
         <v>0.952</v>
       </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1592,6 +1735,9 @@
       <c r="F48" t="n">
         <v>0.957</v>
       </c>
+      <c r="G48" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1616,6 +1762,9 @@
       <c r="F49" t="n">
         <v>0.949</v>
       </c>
+      <c r="G49" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1640,6 +1789,9 @@
       <c r="F50" t="n">
         <v>0.958</v>
       </c>
+      <c r="G50" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1664,6 +1816,9 @@
       <c r="F51" t="n">
         <v>0.957</v>
       </c>
+      <c r="G51" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1688,6 +1843,9 @@
       <c r="F52" t="n">
         <v>0.958</v>
       </c>
+      <c r="G52" t="n">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1712,6 +1870,9 @@
       <c r="F53" t="n">
         <v>0.962</v>
       </c>
+      <c r="G53" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1736,6 +1897,9 @@
       <c r="F54" t="n">
         <v>0.964</v>
       </c>
+      <c r="G54" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1760,6 +1924,9 @@
       <c r="F55" t="n">
         <v>0.965</v>
       </c>
+      <c r="G55" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1784,6 +1951,9 @@
       <c r="F56" t="n">
         <v>0.965</v>
       </c>
+      <c r="G56" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1808,6 +1978,9 @@
       <c r="F57" t="n">
         <v>0.955</v>
       </c>
+      <c r="G57" t="n">
+        <v>-1.65</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1832,6 +2005,9 @@
       <c r="F58" t="n">
         <v>0.919</v>
       </c>
+      <c r="G58" t="n">
+        <v>-3.04</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1856,6 +2032,9 @@
       <c r="F59" t="n">
         <v>0.911</v>
       </c>
+      <c r="G59" t="n">
+        <v>-1.19</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1880,6 +2059,9 @@
       <c r="F60" t="n">
         <v>0.906</v>
       </c>
+      <c r="G60" t="n">
+        <v>-0.55</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1904,6 +2086,9 @@
       <c r="F61" t="n">
         <v>0.908</v>
       </c>
+      <c r="G61" t="n">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1928,6 +2113,9 @@
       <c r="F62" t="n">
         <v>0.901</v>
       </c>
+      <c r="G62" t="n">
+        <v>-0.22</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1952,6 +2140,9 @@
       <c r="F63" t="n">
         <v>0.912</v>
       </c>
+      <c r="G63" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1976,6 +2167,9 @@
       <c r="F64" t="n">
         <v>0.905</v>
       </c>
+      <c r="G64" t="n">
+        <v>-1.09</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2000,6 +2194,9 @@
       <c r="F65" t="n">
         <v>0.898</v>
       </c>
+      <c r="G65" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2024,6 +2221,9 @@
       <c r="F66" t="n">
         <v>0.901</v>
       </c>
+      <c r="G66" t="n">
+        <v>2.88</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2048,6 +2248,9 @@
       <c r="F67" t="n">
         <v>0.92</v>
       </c>
+      <c r="G67" t="n">
+        <v>-0.75</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2072,6 +2275,9 @@
       <c r="F68" t="n">
         <v>0.917</v>
       </c>
+      <c r="G68" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2096,6 +2302,9 @@
       <c r="F69" t="n">
         <v>0.918</v>
       </c>
+      <c r="G69" t="n">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2120,6 +2329,9 @@
       <c r="F70" t="n">
         <v>0.929</v>
       </c>
+      <c r="G70" t="n">
+        <v>0.32</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2144,6 +2356,9 @@
       <c r="F71" t="n">
         <v>0.927</v>
       </c>
+      <c r="G71" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2168,6 +2383,9 @@
       <c r="F72" t="n">
         <v>0.92</v>
       </c>
+      <c r="G72" t="n">
+        <v>-0.64</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2192,6 +2410,9 @@
       <c r="F73" t="n">
         <v>0.924</v>
       </c>
+      <c r="G73" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2216,6 +2437,9 @@
       <c r="F74" t="n">
         <v>0.921</v>
       </c>
+      <c r="G74" t="n">
+        <v>0.97</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2240,6 +2464,9 @@
       <c r="F75" t="n">
         <v>0.928</v>
       </c>
+      <c r="G75" t="n">
+        <v>-0.54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2264,6 +2491,9 @@
       <c r="F76" t="n">
         <v>0.923</v>
       </c>
+      <c r="G76" t="n">
+        <v>-0.32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2288,6 +2518,9 @@
       <c r="F77" t="n">
         <v>0.924</v>
       </c>
+      <c r="G77" t="n">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2312,6 +2545,9 @@
       <c r="F78" t="n">
         <v>0.9379999999999999</v>
       </c>
+      <c r="G78" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2336,6 +2572,9 @@
       <c r="F79" t="n">
         <v>0.951</v>
       </c>
+      <c r="G79" t="n">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2360,6 +2599,9 @@
       <c r="F80" t="n">
         <v>0.95</v>
       </c>
+      <c r="G80" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2384,6 +2626,9 @@
       <c r="F81" t="n">
         <v>0.95</v>
       </c>
+      <c r="G81" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2408,6 +2653,9 @@
       <c r="F82" t="n">
         <v>0.958</v>
       </c>
+      <c r="G82" t="n">
+        <v>-0.52</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2432,6 +2680,9 @@
       <c r="F83" t="n">
         <v>0.957</v>
       </c>
+      <c r="G83" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2456,6 +2707,9 @@
       <c r="F84" t="n">
         <v>0.963</v>
       </c>
+      <c r="G84" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2480,6 +2734,9 @@
       <c r="F85" t="n">
         <v>0.956</v>
       </c>
+      <c r="G85" t="n">
+        <v>-1.03</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2504,6 +2761,9 @@
       <c r="F86" t="n">
         <v>0.956</v>
       </c>
+      <c r="G86" t="n">
+        <v>0.9399999999999999</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2528,6 +2788,9 @@
       <c r="F87" t="n">
         <v>0.962</v>
       </c>
+      <c r="G87" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2552,6 +2815,9 @@
       <c r="F88" t="n">
         <v>0.966</v>
       </c>
+      <c r="G88" t="n">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2576,6 +2842,9 @@
       <c r="F89" t="n">
         <v>0.972</v>
       </c>
+      <c r="G89" t="n">
+        <v>-0.51</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2600,6 +2869,9 @@
       <c r="F90" t="n">
         <v>0.965</v>
       </c>
+      <c r="G90" t="n">
+        <v>-1.02</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2624,6 +2896,9 @@
       <c r="F91" t="n">
         <v>0.967</v>
       </c>
+      <c r="G91" t="n">
+        <v>1.03</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2648,6 +2923,9 @@
       <c r="F92" t="n">
         <v>0.967</v>
       </c>
+      <c r="G92" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2672,6 +2950,9 @@
       <c r="F93" t="n">
         <v>0.953</v>
       </c>
+      <c r="G93" t="n">
+        <v>-2.05</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2696,6 +2977,9 @@
       <c r="F94" t="n">
         <v>0.951</v>
       </c>
+      <c r="G94" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2720,6 +3004,9 @@
       <c r="F95" t="n">
         <v>0.947</v>
       </c>
+      <c r="G95" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2744,6 +3031,9 @@
       <c r="F96" t="n">
         <v>0.952</v>
       </c>
+      <c r="G96" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2768,6 +3058,9 @@
       <c r="F97" t="n">
         <v>0.963</v>
       </c>
+      <c r="G97" t="n">
+        <v>1.56</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2792,6 +3085,9 @@
       <c r="F98" t="n">
         <v>0.968</v>
       </c>
+      <c r="G98" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2816,6 +3112,9 @@
       <c r="F99" t="n">
         <v>0.962</v>
       </c>
+      <c r="G99" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2840,6 +3139,9 @@
       <c r="F100" t="n">
         <v>0.959</v>
       </c>
+      <c r="G100" t="n">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2864,6 +3166,9 @@
       <c r="F101" t="n">
         <v>0.967</v>
       </c>
+      <c r="G101" t="n">
+        <v>-0.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2888,6 +3193,9 @@
       <c r="F102" t="n">
         <v>0.958</v>
       </c>
+      <c r="G102" t="n">
+        <v>-0.72</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2912,6 +3220,9 @@
       <c r="F103" t="n">
         <v>0.962</v>
       </c>
+      <c r="G103" t="n">
+        <v>2.39</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2936,6 +3247,9 @@
       <c r="F104" t="n">
         <v>0.982</v>
       </c>
+      <c r="G104" t="n">
+        <v>-0.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2960,6 +3274,9 @@
       <c r="F105" t="n">
         <v>0.984</v>
       </c>
+      <c r="G105" t="n">
+        <v>0.41</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2984,6 +3301,9 @@
       <c r="F106" t="n">
         <v>0.98</v>
       </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3008,6 +3328,9 @@
       <c r="F107" t="n">
         <v>0.976</v>
       </c>
+      <c r="G107" t="n">
+        <v>-0.91</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3032,6 +3355,9 @@
       <c r="F108" t="n">
         <v>0.958</v>
       </c>
+      <c r="G108" t="n">
+        <v>-1.43</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3056,6 +3382,9 @@
       <c r="F109" t="n">
         <v>0.957</v>
       </c>
+      <c r="G109" t="n">
+        <v>0.52</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3080,6 +3409,9 @@
       <c r="F110" t="n">
         <v>0.961</v>
       </c>
+      <c r="G110" t="n">
+        <v>-0.41</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3104,6 +3436,9 @@
       <c r="F111" t="n">
         <v>0.96</v>
       </c>
+      <c r="G111" t="n">
+        <v>-0.31</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3128,6 +3463,9 @@
       <c r="F112" t="n">
         <v>0.955</v>
       </c>
+      <c r="G112" t="n">
+        <v>0.21</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3152,6 +3490,9 @@
       <c r="F113" t="n">
         <v>0.957</v>
       </c>
+      <c r="G113" t="n">
+        <v>-0.42</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3176,6 +3517,9 @@
       <c r="F114" t="n">
         <v>0.946</v>
       </c>
+      <c r="G114" t="n">
+        <v>-0.83</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3200,6 +3544,9 @@
       <c r="F115" t="n">
         <v>0.95</v>
       </c>
+      <c r="G115" t="n">
+        <v>0.11</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3224,6 +3571,9 @@
       <c r="F116" t="n">
         <v>0.949</v>
       </c>
+      <c r="G116" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3248,6 +3598,9 @@
       <c r="F117" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="G117" t="n">
+        <v>-0.74</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3272,6 +3625,9 @@
       <c r="F118" t="n">
         <v>0.851</v>
       </c>
+      <c r="G118" t="n">
+        <v>-8.16</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3296,6 +3652,9 @@
       <c r="F119" t="n">
         <v>0.867</v>
       </c>
+      <c r="G119" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3320,6 +3679,9 @@
       <c r="F120" t="n">
         <v>0.862</v>
       </c>
+      <c r="G120" t="n">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3344,6 +3706,9 @@
       <c r="F121" t="n">
         <v>0.9</v>
       </c>
+      <c r="G121" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3368,6 +3733,9 @@
       <c r="F122" t="n">
         <v>0.9</v>
       </c>
+      <c r="G122" t="n">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3392,6 +3760,9 @@
       <c r="F123" t="n">
         <v>0.913</v>
       </c>
+      <c r="G123" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3416,6 +3787,9 @@
       <c r="F124" t="n">
         <v>0.908</v>
       </c>
+      <c r="G124" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3440,6 +3814,9 @@
       <c r="F125" t="n">
         <v>0.903</v>
       </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3464,6 +3841,9 @@
       <c r="F126" t="n">
         <v>0.909</v>
       </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3488,6 +3868,9 @@
       <c r="F127" t="n">
         <v>0.909</v>
       </c>
+      <c r="G127" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3512,6 +3895,9 @@
       <c r="F128" t="n">
         <v>0.912</v>
       </c>
+      <c r="G128" t="n">
+        <v>0.44</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3536,6 +3922,9 @@
       <c r="F129" t="n">
         <v>0.918</v>
       </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3560,6 +3949,9 @@
       <c r="F130" t="n">
         <v>0.919</v>
       </c>
+      <c r="G130" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3584,6 +3976,9 @@
       <c r="F131" t="n">
         <v>0.917</v>
       </c>
+      <c r="G131" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3608,6 +4003,9 @@
       <c r="F132" t="n">
         <v>0.919</v>
       </c>
+      <c r="G132" t="n">
+        <v>0.22</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3632,6 +4030,9 @@
       <c r="F133" t="n">
         <v>0.916</v>
       </c>
+      <c r="G133" t="n">
+        <v>-0.33</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3656,6 +4057,9 @@
       <c r="F134" t="n">
         <v>0.916</v>
       </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3680,6 +4084,9 @@
       <c r="F135" t="n">
         <v>0.918</v>
       </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3704,6 +4111,9 @@
       <c r="F136" t="n">
         <v>0.924</v>
       </c>
+      <c r="G136" t="n">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3727,6 +4137,198 @@
       </c>
       <c r="F137" t="n">
         <v>0.9320000000000001</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>20250508</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.946</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>20250509</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.9419999999999999</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>20250512</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>20250513</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>20250514</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>20250515</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.949</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>20250516</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>SZ159338</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.951</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-0.32</v>
       </c>
     </row>
   </sheetData>
